--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col3a1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col3a1-Mag.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.822558333333333</v>
+        <v>23.94933966666666</v>
       </c>
       <c r="H2">
-        <v>23.467675</v>
+        <v>71.84801899999999</v>
       </c>
       <c r="I2">
-        <v>0.001247993910151231</v>
+        <v>0.003771463579284448</v>
       </c>
       <c r="J2">
-        <v>0.001247993910151231</v>
+        <v>0.003771463579284448</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4679556666666667</v>
+        <v>0.8180823333333334</v>
       </c>
       <c r="N2">
-        <v>1.403867</v>
+        <v>2.454247</v>
       </c>
       <c r="O2">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="P2">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="Q2">
-        <v>3.660610499913889</v>
+        <v>19.59253167629922</v>
       </c>
       <c r="R2">
-        <v>32.945494499225</v>
+        <v>176.332785086693</v>
       </c>
       <c r="S2">
-        <v>0.0007475111865991517</v>
+        <v>0.001929236650057989</v>
       </c>
       <c r="T2">
-        <v>0.0007475111865991517</v>
+        <v>0.001929236650057989</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.822558333333333</v>
+        <v>23.94933966666666</v>
       </c>
       <c r="H3">
-        <v>23.467675</v>
+        <v>71.84801899999999</v>
       </c>
       <c r="I3">
-        <v>0.001247993910151231</v>
+        <v>0.003771463579284448</v>
       </c>
       <c r="J3">
-        <v>0.001247993910151231</v>
+        <v>0.003771463579284448</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3133113333333333</v>
+        <v>0.7811863333333333</v>
       </c>
       <c r="N3">
-        <v>0.939934</v>
+        <v>2.343559</v>
       </c>
       <c r="O3">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191578</v>
       </c>
       <c r="P3">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191579</v>
       </c>
       <c r="Q3">
-        <v>2.450896181494445</v>
+        <v>18.70889683995789</v>
       </c>
       <c r="R3">
-        <v>22.05806563345</v>
+        <v>168.380071559621</v>
       </c>
       <c r="S3">
-        <v>0.0005004827235520794</v>
+        <v>0.001842226929226459</v>
       </c>
       <c r="T3">
-        <v>0.0005004827235520794</v>
+        <v>0.001842226929226459</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,40 +667,40 @@
         <v>18113.320312</v>
       </c>
       <c r="I4">
-        <v>0.9632532171165058</v>
+        <v>0.9508087878751565</v>
       </c>
       <c r="J4">
-        <v>0.9632532171165058</v>
+        <v>0.9508087878751567</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4679556666666667</v>
+        <v>0.8180823333333334</v>
       </c>
       <c r="N4">
-        <v>1.403867</v>
+        <v>2.454247</v>
       </c>
       <c r="O4">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="P4">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="Q4">
-        <v>2825.410294049611</v>
+        <v>4939.395781751674</v>
       </c>
       <c r="R4">
-        <v>25428.6926464465</v>
+        <v>44454.56203576506</v>
       </c>
       <c r="S4">
-        <v>0.5769599911228375</v>
+        <v>0.4863722324779784</v>
       </c>
       <c r="T4">
-        <v>0.5769599911228375</v>
+        <v>0.4863722324779785</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>18113.320312</v>
       </c>
       <c r="I5">
-        <v>0.9632532171165058</v>
+        <v>0.9508087878751565</v>
       </c>
       <c r="J5">
-        <v>0.9632532171165058</v>
+        <v>0.9508087878751567</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3133113333333333</v>
+        <v>0.7811863333333333</v>
       </c>
       <c r="N5">
-        <v>0.939934</v>
+        <v>2.343559</v>
       </c>
       <c r="O5">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191578</v>
       </c>
       <c r="P5">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191579</v>
       </c>
       <c r="Q5">
-        <v>1891.70284601549</v>
+        <v>4716.626093007823</v>
       </c>
       <c r="R5">
-        <v>17025.32561413941</v>
+        <v>42449.63483707041</v>
       </c>
       <c r="S5">
-        <v>0.3862932259936683</v>
+        <v>0.4644365553971782</v>
       </c>
       <c r="T5">
-        <v>0.3862932259936683</v>
+        <v>0.4644365553971783</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>221.4914043333333</v>
+        <v>285.3476563333333</v>
       </c>
       <c r="H6">
-        <v>664.474213</v>
+        <v>856.042969</v>
       </c>
       <c r="I6">
-        <v>0.03533625598942085</v>
+        <v>0.0449356144375536</v>
       </c>
       <c r="J6">
-        <v>0.03533625598942085</v>
+        <v>0.04493561443755361</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4679556666666667</v>
+        <v>0.8180823333333334</v>
       </c>
       <c r="N6">
-        <v>1.403867</v>
+        <v>2.454247</v>
       </c>
       <c r="O6">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="P6">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="Q6">
-        <v>103.6481577757412</v>
+        <v>233.4378765043714</v>
       </c>
       <c r="R6">
-        <v>932.8334199816709</v>
+        <v>2100.940888539343</v>
       </c>
       <c r="S6">
-        <v>0.02116536501482006</v>
+        <v>0.02298615177990161</v>
       </c>
       <c r="T6">
-        <v>0.02116536501482006</v>
+        <v>0.02298615177990162</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>221.4914043333333</v>
+        <v>285.3476563333333</v>
       </c>
       <c r="H7">
-        <v>664.474213</v>
+        <v>856.042969</v>
       </c>
       <c r="I7">
-        <v>0.03533625598942085</v>
+        <v>0.0449356144375536</v>
       </c>
       <c r="J7">
-        <v>0.03533625598942085</v>
+        <v>0.04493561443755361</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3133113333333333</v>
+        <v>0.7811863333333333</v>
       </c>
       <c r="N7">
-        <v>0.939934</v>
+        <v>2.343559</v>
       </c>
       <c r="O7">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191578</v>
       </c>
       <c r="P7">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191579</v>
       </c>
       <c r="Q7">
-        <v>69.39576721354911</v>
+        <v>222.9096893762967</v>
       </c>
       <c r="R7">
-        <v>624.561904921942</v>
+        <v>2006.187204386671</v>
       </c>
       <c r="S7">
-        <v>0.01417089097460079</v>
+        <v>0.02194946265765199</v>
       </c>
       <c r="T7">
-        <v>0.01417089097460079</v>
+        <v>0.021949462657652</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.018774</v>
+        <v>3.074321666666667</v>
       </c>
       <c r="H8">
-        <v>3.056322</v>
+        <v>9.222965</v>
       </c>
       <c r="I8">
-        <v>0.0001625329839219791</v>
+        <v>0.0004841341080053326</v>
       </c>
       <c r="J8">
-        <v>0.0001625329839219791</v>
+        <v>0.0004841341080053326</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4679556666666667</v>
+        <v>0.8180823333333334</v>
       </c>
       <c r="N8">
-        <v>1.403867</v>
+        <v>2.454247</v>
       </c>
       <c r="O8">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="P8">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="Q8">
-        <v>0.4767410663526666</v>
+        <v>2.515048242483889</v>
       </c>
       <c r="R8">
-        <v>4.290669597173999</v>
+        <v>22.635434182355</v>
       </c>
       <c r="S8">
-        <v>9.73524170949654E-05</v>
+        <v>0.0002476516729041907</v>
       </c>
       <c r="T8">
-        <v>9.73524170949654E-05</v>
+        <v>0.0002476516729041907</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.018774</v>
+        <v>3.074321666666667</v>
       </c>
       <c r="H9">
-        <v>3.056322</v>
+        <v>9.222965</v>
       </c>
       <c r="I9">
-        <v>0.0001625329839219791</v>
+        <v>0.0004841341080053326</v>
       </c>
       <c r="J9">
-        <v>0.0001625329839219791</v>
+        <v>0.0004841341080053326</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3133113333333333</v>
+        <v>0.7811863333333333</v>
       </c>
       <c r="N9">
-        <v>0.939934</v>
+        <v>2.343559</v>
       </c>
       <c r="O9">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191578</v>
       </c>
       <c r="P9">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191579</v>
       </c>
       <c r="Q9">
-        <v>0.3191934403053333</v>
+        <v>2.401618070270556</v>
       </c>
       <c r="R9">
-        <v>2.872740962748</v>
+        <v>21.614562632435</v>
       </c>
       <c r="S9">
-        <v>6.518056682701368E-05</v>
+        <v>0.0002364824351011419</v>
       </c>
       <c r="T9">
-        <v>6.518056682701368E-05</v>
+        <v>0.000236482435101142</v>
       </c>
     </row>
   </sheetData>
